--- a/HW_design/Libaas_System/Libaas_System_090221_RajivEl.xlsx
+++ b/HW_design/Libaas_System/Libaas_System_090221_RajivEl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>Comment</t>
   </si>
@@ -415,6 +415,12 @@
   <si>
     <t>80 V, 1 A NPN medium power transistors</t>
   </si>
+  <si>
+    <t>LM2596</t>
+  </si>
+  <si>
+    <t>1N4007</t>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +456,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -474,11 +486,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,6 +518,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,10 +807,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +819,7 @@
     <col min="7" max="7" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,8 +842,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -836,8 +865,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -859,8 +888,8 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -882,8 +911,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -905,8 +934,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -927,8 +956,11 @@
       <c r="G6" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -951,7 +983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -997,8 +1029,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1020,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1043,7 +1075,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1066,8 +1098,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1089,7 +1121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1133,8 +1165,8 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1156,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -1177,7 +1209,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1198,7 +1230,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1221,8 +1253,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1244,8 +1276,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1267,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
@@ -1290,7 +1322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1313,7 +1345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
@@ -1336,7 +1368,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -1359,7 +1391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
@@ -1382,8 +1414,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1405,8 +1437,8 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1426,6 +1458,9 @@
       </c>
       <c r="G28" s="7">
         <v>30</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
